--- a/biology/Histoire de la zoologie et de la botanique/Lyman_Bradford_Smith/Lyman_Bradford_Smith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lyman_Bradford_Smith/Lyman_Bradford_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lyman Bradford Smith est un botaniste américain, né le 11 septembre 1904 à Winchester (Massachusetts) et mort le 4 mai 1997. Il est considéré, avec Carl Christian Mez (1866-1944), comme le grand spécialiste des Broméliacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l’université Harvard où il obtient son Bachelor of Arts en 1925 et son Master of Arts en 1929. Il fait cette année-là sa première expédition au Brésil et obtient son doctorat l’année suivante.
 De 1931 à 1947, il est conservateur à l’herbier Gray de l'université de Harvard. Il devient alors conservateur associé des phanérogames à l’U.S. National Museum of Natural History, puis conservateur en 1957, botaniste senior en 1966 et botaniste émérite en 1974.
@@ -544,7 +558,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1955 : The Bromeliaceae of Brazil.
 1957 : The Bromeliaceae of Colombia.
@@ -581,7 +597,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stephen F. Smith (1997). Lyman Bradford Smith (1904-1997), Taxon, 46 (4) : 819-824.
 Flora Neotropica Vol. 14(1) : Pitcairnioideae (Bromeliaceae), présentation des auteurs.</t>
